--- a/Code/Results/Cases/Case_3_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.918667615108717</v>
+        <v>0.6826468759216482</v>
       </c>
       <c r="C2">
-        <v>0.5023211398719241</v>
+        <v>0.1574469820557738</v>
       </c>
       <c r="D2">
-        <v>0.17642708981883</v>
+        <v>0.2803466517295021</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7472272564992366</v>
+        <v>1.19783137497874</v>
       </c>
       <c r="G2">
-        <v>0.0007901030606362187</v>
+        <v>0.002426350159526877</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2237654157371267</v>
+        <v>0.5013199218718007</v>
       </c>
       <c r="J2">
-        <v>0.1465325515237552</v>
+        <v>0.269323055743115</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6779113840210158</v>
+        <v>0.3900585773189533</v>
       </c>
       <c r="N2">
-        <v>0.6908362069337386</v>
+        <v>1.161262285041154</v>
       </c>
       <c r="O2">
-        <v>1.5958880984698</v>
+        <v>2.562930756647688</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.66870786791489</v>
+        <v>0.607081469216638</v>
       </c>
       <c r="C3">
-        <v>0.4379426202963543</v>
+        <v>0.1377339995761986</v>
       </c>
       <c r="D3">
-        <v>0.161889178464989</v>
+        <v>0.277881639103569</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6994989539791803</v>
+        <v>1.195546572664348</v>
       </c>
       <c r="G3">
-        <v>0.0007941202037635582</v>
+        <v>0.002429068525775315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2235210803844154</v>
+        <v>0.5061891078789955</v>
       </c>
       <c r="J3">
-        <v>0.1386816482836082</v>
+        <v>0.2694069276888129</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5912553062928367</v>
+        <v>0.3663935105153371</v>
       </c>
       <c r="N3">
-        <v>0.710991027822125</v>
+        <v>1.170863466632966</v>
       </c>
       <c r="O3">
-        <v>1.501109643145469</v>
+        <v>2.562067369321369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.515387320791746</v>
+        <v>0.5606740724697943</v>
       </c>
       <c r="C4">
-        <v>0.3984465855912447</v>
+        <v>0.1256009657145682</v>
       </c>
       <c r="D4">
-        <v>0.1531220860792075</v>
+        <v>0.2764740242629671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6716422201579562</v>
+        <v>1.194867935849445</v>
       </c>
       <c r="G4">
-        <v>0.0007966700804541971</v>
+        <v>0.002430827864883849</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2240251735674725</v>
+        <v>0.5095022789070782</v>
       </c>
       <c r="J4">
-        <v>0.1341279614616226</v>
+        <v>0.2696008630980842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5383297640540405</v>
+        <v>0.3519866908456919</v>
       </c>
       <c r="N4">
-        <v>0.7243151086440491</v>
+        <v>1.177213086768525</v>
       </c>
       <c r="O4">
-        <v>1.446484445044348</v>
+        <v>2.563227364524266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452927746629967</v>
+        <v>0.5417613287737026</v>
       </c>
       <c r="C5">
-        <v>0.3823541790002594</v>
+        <v>0.1206495623312662</v>
       </c>
       <c r="D5">
-        <v>0.1495871276523815</v>
+        <v>0.2759271251445625</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6606333705133736</v>
+        <v>1.194773461091209</v>
       </c>
       <c r="G5">
-        <v>0.0007977305046272998</v>
+        <v>0.002431567572129331</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.224387218031751</v>
+        <v>0.5109336715441444</v>
       </c>
       <c r="J5">
-        <v>0.1323356490893204</v>
+        <v>0.2697157040752955</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5168232674260409</v>
+        <v>0.346147209424096</v>
       </c>
       <c r="N5">
-        <v>0.7299763617255266</v>
+        <v>1.179914970788651</v>
       </c>
       <c r="O5">
-        <v>1.425068633552257</v>
+        <v>2.564124719432044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.442557033867132</v>
+        <v>0.5386208341331269</v>
       </c>
       <c r="C6">
-        <v>0.37968204245729</v>
+        <v>0.1198269643539902</v>
       </c>
       <c r="D6">
-        <v>0.1490023615278488</v>
+        <v>0.2758379289406605</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.658825473510305</v>
+        <v>1.194768769351079</v>
       </c>
       <c r="G6">
-        <v>0.0007979078860829375</v>
+        <v>0.002431691776672407</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2244565720807579</v>
+        <v>0.5111762577522363</v>
       </c>
       <c r="J6">
-        <v>0.1320417575998931</v>
+        <v>0.2697369360311512</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5132555458945447</v>
+        <v>0.3451794750030572</v>
       </c>
       <c r="N6">
-        <v>0.730930196695553</v>
+        <v>1.180370526366339</v>
       </c>
       <c r="O6">
-        <v>1.421562051896473</v>
+        <v>2.564299362081982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.514544913735705</v>
+        <v>0.5604190125531261</v>
       </c>
       <c r="C7">
-        <v>0.3982295546719854</v>
+        <v>0.1255342177531986</v>
       </c>
       <c r="D7">
-        <v>0.1530742627415833</v>
+        <v>0.2764665403105937</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6714923895323039</v>
+        <v>1.194865924569896</v>
       </c>
       <c r="G7">
-        <v>0.0007966842948506147</v>
+        <v>0.002430837748623356</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2240294321824372</v>
+        <v>0.5095212543178427</v>
       </c>
       <c r="J7">
-        <v>0.1341035380015896</v>
+        <v>0.2696022668954399</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5380394850229635</v>
+        <v>0.3519078099260255</v>
       </c>
       <c r="N7">
-        <v>0.7243905296428181</v>
+        <v>1.177249062157941</v>
       </c>
       <c r="O7">
-        <v>1.446192273214507</v>
+        <v>2.563237747649168</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.832437068015452</v>
+        <v>0.6565946478531544</v>
       </c>
       <c r="C8">
-        <v>0.4801131166325661</v>
+        <v>0.1506561434115383</v>
       </c>
       <c r="D8">
-        <v>0.1713799163540841</v>
+        <v>0.2794747814293146</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7304567210784896</v>
+        <v>1.196893229894542</v>
       </c>
       <c r="G8">
-        <v>0.0007914711057522257</v>
+        <v>0.002427268761394874</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2235405583929584</v>
+        <v>0.5029316260248393</v>
       </c>
       <c r="J8">
-        <v>0.1437678751001954</v>
+        <v>0.2693224072699323</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6479678613384792</v>
+        <v>0.3818733920224346</v>
       </c>
       <c r="N8">
-        <v>0.6975842904245582</v>
+        <v>1.16447850069931</v>
       </c>
       <c r="O8">
-        <v>1.562434893245694</v>
+        <v>2.562282059844733</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.458022351022123</v>
+        <v>0.8450748816859459</v>
       </c>
       <c r="C9">
-        <v>0.6412267652543164</v>
+        <v>0.1996801999998752</v>
       </c>
       <c r="D9">
-        <v>0.2086542803859714</v>
+        <v>0.2862112197556428</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8585997139044821</v>
+        <v>1.206619180720949</v>
       </c>
       <c r="G9">
-        <v>0.00078189142276571</v>
+        <v>0.002420982997555746</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2281458376974861</v>
+        <v>0.4925802005728066</v>
       </c>
       <c r="J9">
-        <v>0.1650157844495794</v>
+        <v>0.2699044119608374</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8662490325571639</v>
+        <v>0.4416055219862045</v>
       </c>
       <c r="N9">
-        <v>0.6528813427466389</v>
+        <v>1.143037736640437</v>
       </c>
       <c r="O9">
-        <v>1.821248299018464</v>
+        <v>2.573837890717698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.920459339756235</v>
+        <v>0.9834365435665973</v>
       </c>
       <c r="C10">
-        <v>0.7603578785898719</v>
+        <v>0.2355440368969539</v>
       </c>
       <c r="D10">
-        <v>0.2370493065273962</v>
+        <v>0.2916675776696991</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9618882210823188</v>
+        <v>1.21727875066145</v>
       </c>
       <c r="G10">
-        <v>0.0007752190485084886</v>
+        <v>0.002416795183429484</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2354716932390666</v>
+        <v>0.4865482527883032</v>
       </c>
       <c r="J10">
-        <v>0.1822925296116509</v>
+        <v>0.2710227460409342</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.028996565560149</v>
+        <v>0.4860715077379822</v>
       </c>
       <c r="N10">
-        <v>0.6253240687058437</v>
+        <v>1.129476545648821</v>
       </c>
       <c r="O10">
-        <v>2.033981234553011</v>
+        <v>2.590548055631785</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.131804202624608</v>
+        <v>1.046347925895873</v>
       </c>
       <c r="C11">
-        <v>0.8148240483783695</v>
+        <v>0.2518245026421653</v>
       </c>
       <c r="D11">
-        <v>0.2502267736729351</v>
+        <v>0.2942592726429467</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.011223021697219</v>
+        <v>1.222893054531411</v>
       </c>
       <c r="G11">
-        <v>0.0007722568292655221</v>
+        <v>0.002414982560581766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2397913158142764</v>
+        <v>0.4841470888273562</v>
       </c>
       <c r="J11">
-        <v>0.1905774952651669</v>
+        <v>0.2716818199838826</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.103724853137237</v>
+        <v>0.506424437423469</v>
       </c>
       <c r="N11">
-        <v>0.6140524295664136</v>
+        <v>1.123782138714688</v>
       </c>
       <c r="O11">
-        <v>2.136562477778966</v>
+        <v>2.599942288388036</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.212007366554133</v>
+        <v>1.070165531535963</v>
       </c>
       <c r="C12">
-        <v>0.8354975309435133</v>
+        <v>0.2579843756084585</v>
       </c>
       <c r="D12">
-        <v>0.2552577754533161</v>
+        <v>0.2952563646745006</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.030274848838005</v>
+        <v>1.225129185639148</v>
       </c>
       <c r="G12">
-        <v>0.0007711450782663512</v>
+        <v>0.002414309389642932</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2415807383815256</v>
+        <v>0.4832872316747938</v>
       </c>
       <c r="J12">
-        <v>0.1937817104275368</v>
+        <v>0.2719530304988353</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.132137662861169</v>
+        <v>0.51414928885373</v>
       </c>
       <c r="N12">
-        <v>0.6099765366123933</v>
+        <v>1.12169401125692</v>
       </c>
       <c r="O12">
-        <v>2.176323242865578</v>
+        <v>2.603757920455337</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.194726042162927</v>
+        <v>1.065036251608433</v>
       </c>
       <c r="C13">
-        <v>0.8310428241053671</v>
+        <v>0.2566579717287993</v>
       </c>
       <c r="D13">
-        <v>0.2541723775685796</v>
+        <v>0.2950409273026224</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.02615471274791</v>
+        <v>1.22464269609462</v>
       </c>
       <c r="G13">
-        <v>0.0007713840788067159</v>
+        <v>0.002414453781633631</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2411883235612642</v>
+        <v>0.4834702178387609</v>
       </c>
       <c r="J13">
-        <v>0.1930885561899416</v>
+        <v>0.2718936580650393</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.126013095911965</v>
+        <v>0.5124848250456324</v>
       </c>
       <c r="N13">
-        <v>0.6108456175275094</v>
+        <v>1.122140693201459</v>
       </c>
       <c r="O13">
-        <v>2.167717992180485</v>
+        <v>2.602924663337859</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.138398945357551</v>
+        <v>1.048307533424349</v>
       </c>
       <c r="C14">
-        <v>0.8165238448407308</v>
+        <v>0.2523313845905193</v>
       </c>
       <c r="D14">
-        <v>0.2506398347513255</v>
+        <v>0.2943409903589469</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.012782823029184</v>
+        <v>1.223074815040434</v>
       </c>
       <c r="G14">
-        <v>0.0007721651680513468</v>
+        <v>0.002414926913636796</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2399353825796133</v>
+        <v>0.484075356909468</v>
       </c>
       <c r="J14">
-        <v>0.190839733677123</v>
+        <v>0.2717036989818453</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.106060000104904</v>
+        <v>0.5070596141261774</v>
       </c>
       <c r="N14">
-        <v>0.613713183283437</v>
+        <v>1.123608980137057</v>
       </c>
       <c r="O14">
-        <v>2.139814791192549</v>
+        <v>2.600251024634701</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.1039202483841</v>
+        <v>1.038059948104717</v>
       </c>
       <c r="C15">
-        <v>0.807637127434333</v>
+        <v>0.2496805415970016</v>
       </c>
       <c r="D15">
-        <v>0.2484814964025759</v>
+        <v>0.2939142974569506</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.004641308140435</v>
+        <v>1.222128785334561</v>
       </c>
       <c r="G15">
-        <v>0.000772644890635546</v>
+        <v>0.002415218441586859</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2391882957580442</v>
+        <v>0.484452460384059</v>
       </c>
       <c r="J15">
-        <v>0.1894711498212374</v>
+        <v>0.2715901613284615</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.09385357485862</v>
+        <v>0.5037388023370113</v>
       </c>
       <c r="N15">
-        <v>0.6154950383743056</v>
+        <v>1.124517231751277</v>
       </c>
       <c r="O15">
-        <v>2.12284498129759</v>
+        <v>2.598646987600887</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.906669729999237</v>
+        <v>0.979324425473294</v>
       </c>
       <c r="C16">
-        <v>0.7568046362350174</v>
+        <v>0.2344793592552037</v>
       </c>
       <c r="D16">
-        <v>0.2361936646679936</v>
+        <v>0.2915004020737797</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9587140231098772</v>
+        <v>1.216927247536262</v>
       </c>
       <c r="G16">
-        <v>0.000775414062373414</v>
+        <v>0.002416915497442726</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2352102424145883</v>
+        <v>0.486712082538677</v>
       </c>
       <c r="J16">
-        <v>0.1817601283652266</v>
+        <v>0.2709827004849217</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.024128116774563</v>
+        <v>0.4847438835108733</v>
       </c>
       <c r="N16">
-        <v>0.6260870297635108</v>
+        <v>1.129858236742237</v>
       </c>
       <c r="O16">
-        <v>2.027400910620969</v>
+        <v>2.589970232771918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.785934882863899</v>
+        <v>0.9432835021231654</v>
       </c>
       <c r="C17">
-        <v>0.7256966586753606</v>
+        <v>0.2251449799428826</v>
       </c>
       <c r="D17">
-        <v>0.2287246134523571</v>
+        <v>0.2900475601790333</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9311627141958354</v>
+        <v>1.213932318545105</v>
       </c>
       <c r="G17">
-        <v>0.0007771312092766181</v>
+        <v>0.002417980216562781</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2330307380806715</v>
+        <v>0.4881861702620327</v>
       </c>
       <c r="J17">
-        <v>0.1771425965534235</v>
+        <v>0.2706485588601026</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9815418299023762</v>
+        <v>0.4731229122491598</v>
       </c>
       <c r="N17">
-        <v>0.6329160264027109</v>
+        <v>1.133256314076505</v>
       </c>
       <c r="O17">
-        <v>1.970391926150569</v>
+        <v>2.58510679960645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.716581661515193</v>
+        <v>0.9225509641654526</v>
       </c>
       <c r="C18">
-        <v>0.7078292641144515</v>
+        <v>0.2197728915020321</v>
       </c>
       <c r="D18">
-        <v>0.2244528993354038</v>
+        <v>0.2892222421702968</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.915534909962517</v>
+        <v>1.212281735266757</v>
       </c>
       <c r="G18">
-        <v>0.0007781257789741813</v>
+        <v>0.002418601319137951</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.231869300914795</v>
+        <v>0.4890662854172625</v>
       </c>
       <c r="J18">
-        <v>0.1745264190964448</v>
+        <v>0.2704705190732</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9571116401515027</v>
+        <v>0.4664506359437866</v>
       </c>
       <c r="N18">
-        <v>0.6369622086002451</v>
+        <v>1.13525547597164</v>
       </c>
       <c r="O18">
-        <v>1.938143395151087</v>
+        <v>2.582478191459387</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.693114465265182</v>
+        <v>0.91553084852967</v>
       </c>
       <c r="C19">
-        <v>0.701783716093928</v>
+        <v>0.2179534532934042</v>
       </c>
       <c r="D19">
-        <v>0.2230106380645225</v>
+        <v>0.2889445783592635</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9102802730139814</v>
+        <v>1.211735243316468</v>
       </c>
       <c r="G19">
-        <v>0.0007784637259649618</v>
+        <v>0.002418813110608797</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2314915418367107</v>
+        <v>0.4893698142026537</v>
       </c>
       <c r="J19">
-        <v>0.1736472797849515</v>
+        <v>0.2704126676155667</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9488506031841553</v>
+        <v>0.4641935551374914</v>
       </c>
       <c r="N19">
-        <v>0.6383521865585209</v>
+        <v>1.135940032347008</v>
       </c>
       <c r="O19">
-        <v>1.927315253040831</v>
+        <v>2.581617152191001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.798777757460698</v>
+        <v>0.9471204138403095</v>
       </c>
       <c r="C20">
-        <v>0.7290054956961853</v>
+        <v>0.2261389737511195</v>
       </c>
       <c r="D20">
-        <v>0.229517168357134</v>
+        <v>0.2902011503810229</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9340727092235852</v>
+        <v>1.214243679400496</v>
       </c>
       <c r="G20">
-        <v>0.0007769477043647051</v>
+        <v>0.002417865975126692</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2332531298340612</v>
+        <v>0.4880259115818966</v>
       </c>
       <c r="J20">
-        <v>0.1776299916957313</v>
+        <v>0.270682664262992</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9860684507899506</v>
+        <v>0.4743587658974917</v>
       </c>
       <c r="N20">
-        <v>0.6321767473023101</v>
+        <v>1.132889959219135</v>
       </c>
       <c r="O20">
-        <v>1.976404020695554</v>
+        <v>2.585607056229861</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.154938670326885</v>
+        <v>1.053221324577692</v>
       </c>
       <c r="C21">
-        <v>0.8207870330960816</v>
+        <v>0.2536023510258474</v>
       </c>
       <c r="D21">
-        <v>0.2516762865699178</v>
+        <v>0.2945461540937089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.016700166904883</v>
+        <v>1.223532350563104</v>
       </c>
       <c r="G21">
-        <v>0.0007719354768743706</v>
+        <v>0.002414787584530323</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2402991332983646</v>
+        <v>0.483896270946147</v>
       </c>
       <c r="J21">
-        <v>0.191498405052748</v>
+        <v>0.2717589073214555</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.111917465455733</v>
+        <v>0.5086526542005814</v>
       </c>
       <c r="N21">
-        <v>0.6128655988128457</v>
+        <v>1.123175857417664</v>
       </c>
       <c r="O21">
-        <v>2.147985122424814</v>
+        <v>2.601029324974292</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.3887257451388</v>
+        <v>1.122531361066422</v>
       </c>
       <c r="C22">
-        <v>0.8810580477439203</v>
+        <v>0.2715209013419155</v>
       </c>
       <c r="D22">
-        <v>0.2663992473812726</v>
+        <v>0.2974771834054764</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.072874165039906</v>
+        <v>1.230244911299636</v>
       </c>
       <c r="G22">
-        <v>0.0007687175777872968</v>
+        <v>0.002412852765370173</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2458059049002124</v>
+        <v>0.4814853746232544</v>
       </c>
       <c r="J22">
-        <v>0.2009549730983764</v>
+        <v>0.2725883980773602</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.194844254957502</v>
+        <v>0.5311683398481506</v>
       </c>
       <c r="N22">
-        <v>0.6013717579962545</v>
+        <v>1.117224761537152</v>
       </c>
       <c r="O22">
-        <v>2.265501025952517</v>
+        <v>2.612614098175328</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.263845538042233</v>
+        <v>1.085542726275605</v>
       </c>
       <c r="C23">
-        <v>0.8488608493551908</v>
+        <v>0.261960300980121</v>
       </c>
       <c r="D23">
-        <v>0.2585180673309537</v>
+        <v>0.2959045095777952</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.042683048919073</v>
+        <v>1.226603533413865</v>
       </c>
       <c r="G23">
-        <v>0.0007704299199881466</v>
+        <v>0.002413878381698242</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2427802214968402</v>
+        <v>0.4827457188750159</v>
       </c>
       <c r="J23">
-        <v>0.1958699036096974</v>
+        <v>0.2721341397666563</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.150517405257304</v>
+        <v>0.5191420196333496</v>
       </c>
       <c r="N23">
-        <v>0.6073994008816754</v>
+        <v>1.120364599855996</v>
       </c>
       <c r="O23">
-        <v>2.2022604008543</v>
+        <v>2.606293190787767</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.792971312827547</v>
+        <v>0.9453857837448822</v>
       </c>
       <c r="C24">
-        <v>0.7275095182180848</v>
+        <v>0.2256896066666343</v>
       </c>
       <c r="D24">
-        <v>0.2291587849554588</v>
+        <v>0.2901316812827304</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9327564431304154</v>
+        <v>1.214102691250545</v>
       </c>
       <c r="G24">
-        <v>0.0007770306439985462</v>
+        <v>0.0024179175958605</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2331523021210735</v>
+        <v>0.4880982628596477</v>
       </c>
       <c r="J24">
-        <v>0.1774095208466449</v>
+        <v>0.2706672014080951</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9840218008014929</v>
+        <v>0.4738000091041528</v>
       </c>
       <c r="N24">
-        <v>0.6325106020907114</v>
+        <v>1.133055446322267</v>
       </c>
       <c r="O24">
-        <v>1.973684318219597</v>
+        <v>2.585380368660992</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.288403274671737</v>
+        <v>0.7941031378873618</v>
       </c>
       <c r="C25">
-        <v>0.5975408499628827</v>
+        <v>0.1864443967094473</v>
       </c>
       <c r="D25">
-        <v>0.1984062636193613</v>
+        <v>0.2842995426528319</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8224437289468653</v>
+        <v>1.203371571807992</v>
       </c>
       <c r="G25">
-        <v>0.0007844167394098708</v>
+        <v>0.002422607580504005</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2262496263179585</v>
+        <v>0.4951046909548396</v>
       </c>
       <c r="J25">
-        <v>0.1589954381199519</v>
+        <v>0.2696257626814997</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8068362583629565</v>
+        <v>0.4253436571821112</v>
       </c>
       <c r="N25">
-        <v>0.6640839676173727</v>
+        <v>1.148452886964876</v>
       </c>
       <c r="O25">
-        <v>1.747554435492361</v>
+        <v>2.569270565641773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6826468759216482</v>
+        <v>1.918667615108973</v>
       </c>
       <c r="C2">
-        <v>0.1574469820557738</v>
+        <v>0.5023211398719809</v>
       </c>
       <c r="D2">
-        <v>0.2803466517295021</v>
+        <v>0.1764270898187874</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.19783137497874</v>
+        <v>0.7472272564992366</v>
       </c>
       <c r="G2">
-        <v>0.002426350159526877</v>
+        <v>0.0007901030605538327</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5013199218718007</v>
+        <v>0.2237654157371267</v>
       </c>
       <c r="J2">
-        <v>0.269323055743115</v>
+        <v>0.1465325515236486</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3900585773189533</v>
+        <v>0.6779113840210158</v>
       </c>
       <c r="N2">
-        <v>1.161262285041154</v>
+        <v>0.6908362069337883</v>
       </c>
       <c r="O2">
-        <v>2.562930756647688</v>
+        <v>1.595888098469771</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.607081469216638</v>
+        <v>1.668707867914861</v>
       </c>
       <c r="C3">
-        <v>0.1377339995761986</v>
+        <v>0.437942620296667</v>
       </c>
       <c r="D3">
-        <v>0.277881639103569</v>
+        <v>0.1618891784649037</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.195546572664348</v>
+        <v>0.6994989539791803</v>
       </c>
       <c r="G3">
-        <v>0.002429068525775315</v>
+        <v>0.0007941202037055346</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5061891078789955</v>
+        <v>0.2235210803844119</v>
       </c>
       <c r="J3">
-        <v>0.2694069276888129</v>
+        <v>0.1386816482837219</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3663935105153371</v>
+        <v>0.5912553062928652</v>
       </c>
       <c r="N3">
-        <v>1.170863466632966</v>
+        <v>0.710991027822125</v>
       </c>
       <c r="O3">
-        <v>2.562067369321369</v>
+        <v>1.50110964314544</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5606740724697943</v>
+        <v>1.515387320791717</v>
       </c>
       <c r="C4">
-        <v>0.1256009657145682</v>
+        <v>0.3984465855914152</v>
       </c>
       <c r="D4">
-        <v>0.2764740242629671</v>
+        <v>0.1531220860792075</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.194867935849445</v>
+        <v>0.6716422201579562</v>
       </c>
       <c r="G4">
-        <v>0.002430827864883849</v>
+        <v>0.0007966700804910894</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5095022789070782</v>
+        <v>0.2240251735674761</v>
       </c>
       <c r="J4">
-        <v>0.2696008630980842</v>
+        <v>0.1341279614615374</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3519866908456919</v>
+        <v>0.5383297640540334</v>
       </c>
       <c r="N4">
-        <v>1.177213086768525</v>
+        <v>0.7243151086440491</v>
       </c>
       <c r="O4">
-        <v>2.563227364524266</v>
+        <v>1.446484445044348</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5417613287737026</v>
+        <v>1.452927746629967</v>
       </c>
       <c r="C5">
-        <v>0.1206495623312662</v>
+        <v>0.3823541790002878</v>
       </c>
       <c r="D5">
-        <v>0.2759271251445625</v>
+        <v>0.1495871276523388</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.194773461091209</v>
+        <v>0.6606333705133736</v>
       </c>
       <c r="G5">
-        <v>0.002431567572129331</v>
+        <v>0.0007977305046627903</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5109336715441444</v>
+        <v>0.2243872180317652</v>
       </c>
       <c r="J5">
-        <v>0.2697157040752955</v>
+        <v>0.1323356490892991</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.346147209424096</v>
+        <v>0.5168232674260267</v>
       </c>
       <c r="N5">
-        <v>1.179914970788651</v>
+        <v>0.7299763617254698</v>
       </c>
       <c r="O5">
-        <v>2.564124719432044</v>
+        <v>1.425068633552229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5386208341331269</v>
+        <v>1.442557033867217</v>
       </c>
       <c r="C6">
-        <v>0.1198269643539902</v>
+        <v>0.3796820424571479</v>
       </c>
       <c r="D6">
-        <v>0.2758379289406605</v>
+        <v>0.1490023615278488</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.194768769351079</v>
+        <v>0.6588254735102836</v>
       </c>
       <c r="G6">
-        <v>0.002431691776672407</v>
+        <v>0.0007979078861200332</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5111762577522363</v>
+        <v>0.224456572080765</v>
       </c>
       <c r="J6">
-        <v>0.2697369360311512</v>
+        <v>0.1320417575998789</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3451794750030572</v>
+        <v>0.5132555458945589</v>
       </c>
       <c r="N6">
-        <v>1.180370526366339</v>
+        <v>0.7309301966955459</v>
       </c>
       <c r="O6">
-        <v>2.564299362081982</v>
+        <v>1.421562051896416</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5604190125531261</v>
+        <v>1.514544913735676</v>
       </c>
       <c r="C7">
-        <v>0.1255342177531986</v>
+        <v>0.3982295546719286</v>
       </c>
       <c r="D7">
-        <v>0.2764665403105937</v>
+        <v>0.1530742627415975</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.194865924569896</v>
+        <v>0.6714923895322968</v>
       </c>
       <c r="G7">
-        <v>0.002430837748623356</v>
+        <v>0.000796684294849798</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5095212543178427</v>
+        <v>0.2240294321824337</v>
       </c>
       <c r="J7">
-        <v>0.2696022668954399</v>
+        <v>0.1341035380016038</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3519078099260255</v>
+        <v>0.5380394850229848</v>
       </c>
       <c r="N7">
-        <v>1.177249062157941</v>
+        <v>0.7243905296428181</v>
       </c>
       <c r="O7">
-        <v>2.563237747649168</v>
+        <v>1.44619227321445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6565946478531544</v>
+        <v>1.832437068015452</v>
       </c>
       <c r="C8">
-        <v>0.1506561434115383</v>
+        <v>0.4801131166326797</v>
       </c>
       <c r="D8">
-        <v>0.2794747814293146</v>
+        <v>0.1713799163539989</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.196893229894542</v>
+        <v>0.7304567210785038</v>
       </c>
       <c r="G8">
-        <v>0.002427268761394874</v>
+        <v>0.0007914711057746177</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5029316260248393</v>
+        <v>0.2235405583929619</v>
       </c>
       <c r="J8">
-        <v>0.2693224072699323</v>
+        <v>0.1437678751001741</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3818733920224346</v>
+        <v>0.6479678613384863</v>
       </c>
       <c r="N8">
-        <v>1.16447850069931</v>
+        <v>0.6975842904245511</v>
       </c>
       <c r="O8">
-        <v>2.562282059844733</v>
+        <v>1.562434893245694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8450748816859459</v>
+        <v>2.458022351022123</v>
       </c>
       <c r="C9">
-        <v>0.1996801999998752</v>
+        <v>0.6412267652540891</v>
       </c>
       <c r="D9">
-        <v>0.2862112197556428</v>
+        <v>0.2086542803859714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.206619180720949</v>
+        <v>0.8585997139044821</v>
       </c>
       <c r="G9">
-        <v>0.002420982997555746</v>
+        <v>0.0007818914227910799</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4925802005728066</v>
+        <v>0.2281458376974861</v>
       </c>
       <c r="J9">
-        <v>0.2699044119608374</v>
+        <v>0.1650157844496078</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4416055219862045</v>
+        <v>0.866249032557171</v>
       </c>
       <c r="N9">
-        <v>1.143037736640437</v>
+        <v>0.6528813427466318</v>
       </c>
       <c r="O9">
-        <v>2.573837890717698</v>
+        <v>1.821248299018464</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9834365435665973</v>
+        <v>2.920459339756178</v>
       </c>
       <c r="C10">
-        <v>0.2355440368969539</v>
+        <v>0.7603578785898435</v>
       </c>
       <c r="D10">
-        <v>0.2916675776696991</v>
+        <v>0.2370493065271546</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.21727875066145</v>
+        <v>0.9618882210823188</v>
       </c>
       <c r="G10">
-        <v>0.002416795183429484</v>
+        <v>0.0007752190485079483</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4865482527883032</v>
+        <v>0.2354716932390666</v>
       </c>
       <c r="J10">
-        <v>0.2710227460409342</v>
+        <v>0.182292529611729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4860715077379822</v>
+        <v>1.028996565560149</v>
       </c>
       <c r="N10">
-        <v>1.129476545648821</v>
+        <v>0.6253240687058437</v>
       </c>
       <c r="O10">
-        <v>2.590548055631785</v>
+        <v>2.033981234553039</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.046347925895873</v>
+        <v>3.131804202624778</v>
       </c>
       <c r="C11">
-        <v>0.2518245026421653</v>
+        <v>0.8148240483785116</v>
       </c>
       <c r="D11">
-        <v>0.2942592726429467</v>
+        <v>0.2502267736730062</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.222893054531411</v>
+        <v>1.011223021697205</v>
       </c>
       <c r="G11">
-        <v>0.002414982560581766</v>
+        <v>0.0007722568292361011</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4841470888273562</v>
+        <v>0.2397913158142764</v>
       </c>
       <c r="J11">
-        <v>0.2716818199838826</v>
+        <v>0.1905774952652521</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.506424437423469</v>
+        <v>1.103724853137216</v>
       </c>
       <c r="N11">
-        <v>1.123782138714688</v>
+        <v>0.6140524295663568</v>
       </c>
       <c r="O11">
-        <v>2.599942288388036</v>
+        <v>2.136562477778909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.070165531535963</v>
+        <v>3.21200736655419</v>
       </c>
       <c r="C12">
-        <v>0.2579843756084585</v>
+        <v>0.8354975309433996</v>
       </c>
       <c r="D12">
-        <v>0.2952563646745006</v>
+        <v>0.2552577754533729</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.225129185639148</v>
+        <v>1.03027484883799</v>
       </c>
       <c r="G12">
-        <v>0.002414309389642932</v>
+        <v>0.0007711450782649686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4832872316747938</v>
+        <v>0.2415807383815256</v>
       </c>
       <c r="J12">
-        <v>0.2719530304988353</v>
+        <v>0.1937817104276007</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.51414928885373</v>
+        <v>1.132137662861162</v>
       </c>
       <c r="N12">
-        <v>1.12169401125692</v>
+        <v>0.6099765366123648</v>
       </c>
       <c r="O12">
-        <v>2.603757920455337</v>
+        <v>2.176323242865607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.065036251608433</v>
+        <v>3.194726042162756</v>
       </c>
       <c r="C13">
-        <v>0.2566579717287993</v>
+        <v>0.8310428241050261</v>
       </c>
       <c r="D13">
-        <v>0.2950409273026224</v>
+        <v>0.2541723775684943</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.22464269609462</v>
+        <v>1.026154712747925</v>
       </c>
       <c r="G13">
-        <v>0.002414453781633631</v>
+        <v>0.000771384078833841</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4834702178387609</v>
+        <v>0.2411883235612535</v>
       </c>
       <c r="J13">
-        <v>0.2718936580650393</v>
+        <v>0.1930885561900197</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5124848250456324</v>
+        <v>1.126013095911965</v>
       </c>
       <c r="N13">
-        <v>1.122140693201459</v>
+        <v>0.6108456175275734</v>
       </c>
       <c r="O13">
-        <v>2.602924663337859</v>
+        <v>2.167717992180542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.048307533424349</v>
+        <v>3.138398945357778</v>
       </c>
       <c r="C14">
-        <v>0.2523313845905193</v>
+        <v>0.8165238448409866</v>
       </c>
       <c r="D14">
-        <v>0.2943409903589469</v>
+        <v>0.2506398347512118</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.223074815040434</v>
+        <v>1.01278282302917</v>
       </c>
       <c r="G14">
-        <v>0.002414926913636796</v>
+        <v>0.0007721651680788904</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.484075356909468</v>
+        <v>0.2399353825796169</v>
       </c>
       <c r="J14">
-        <v>0.2717036989818453</v>
+        <v>0.1908397336771941</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5070596141261774</v>
+        <v>1.106060000104883</v>
       </c>
       <c r="N14">
-        <v>1.123608980137057</v>
+        <v>0.6137131832834228</v>
       </c>
       <c r="O14">
-        <v>2.600251024634701</v>
+        <v>2.139814791192606</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.038059948104717</v>
+        <v>3.1039202483841</v>
       </c>
       <c r="C15">
-        <v>0.2496805415970016</v>
+        <v>0.807637127434333</v>
       </c>
       <c r="D15">
-        <v>0.2939142974569506</v>
+        <v>0.2484814964026327</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.222128785334561</v>
+        <v>1.004641308140435</v>
       </c>
       <c r="G15">
-        <v>0.002415218441586859</v>
+        <v>0.0007726448906920794</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.484452460384059</v>
+        <v>0.2391882957580584</v>
       </c>
       <c r="J15">
-        <v>0.2715901613284615</v>
+        <v>0.18947114982128</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5037388023370113</v>
+        <v>1.09385357485862</v>
       </c>
       <c r="N15">
-        <v>1.124517231751277</v>
+        <v>0.6154950383743554</v>
       </c>
       <c r="O15">
-        <v>2.598646987600887</v>
+        <v>2.122844981297646</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.979324425473294</v>
+        <v>2.906669729999123</v>
       </c>
       <c r="C16">
-        <v>0.2344793592552037</v>
+        <v>0.7568046362350174</v>
       </c>
       <c r="D16">
-        <v>0.2915004020737797</v>
+        <v>0.2361936646681215</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.216927247536262</v>
+        <v>0.9587140231098914</v>
       </c>
       <c r="G16">
-        <v>0.002416915497442726</v>
+        <v>0.0007754140623448428</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.486712082538677</v>
+        <v>0.2352102424145883</v>
       </c>
       <c r="J16">
-        <v>0.2709827004849217</v>
+        <v>0.1817601283651058</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4847438835108733</v>
+        <v>1.02412811677457</v>
       </c>
       <c r="N16">
-        <v>1.129858236742237</v>
+        <v>0.6260870297635108</v>
       </c>
       <c r="O16">
-        <v>2.589970232771918</v>
+        <v>2.027400910621026</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9432835021231654</v>
+        <v>2.785934882864069</v>
       </c>
       <c r="C17">
-        <v>0.2251449799428826</v>
+        <v>0.7256966586754743</v>
       </c>
       <c r="D17">
-        <v>0.2900475601790333</v>
+        <v>0.2287246134521865</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.213932318545105</v>
+        <v>0.9311627141958354</v>
       </c>
       <c r="G17">
-        <v>0.002417980216562781</v>
+        <v>0.0007771312092489031</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4881861702620327</v>
+        <v>0.2330307380806644</v>
       </c>
       <c r="J17">
-        <v>0.2706485588601026</v>
+        <v>0.177142596553324</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4731229122491598</v>
+        <v>0.9815418299023762</v>
       </c>
       <c r="N17">
-        <v>1.133256314076505</v>
+        <v>0.6329160264026896</v>
       </c>
       <c r="O17">
-        <v>2.58510679960645</v>
+        <v>1.970391926150626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9225509641654526</v>
+        <v>2.716581661515079</v>
       </c>
       <c r="C18">
-        <v>0.2197728915020321</v>
+        <v>0.7078292641142809</v>
       </c>
       <c r="D18">
-        <v>0.2892222421702968</v>
+        <v>0.2244528993354464</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.212281735266757</v>
+        <v>0.915534909962517</v>
       </c>
       <c r="G18">
-        <v>0.002418601319137951</v>
+        <v>0.0007781257790291929</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4890662854172625</v>
+        <v>0.231869300914795</v>
       </c>
       <c r="J18">
-        <v>0.2704705190732</v>
+        <v>0.1745264190964448</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4664506359437866</v>
+        <v>0.9571116401515098</v>
       </c>
       <c r="N18">
-        <v>1.13525547597164</v>
+        <v>0.6369622086002309</v>
       </c>
       <c r="O18">
-        <v>2.582478191459387</v>
+        <v>1.938143395151087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.91553084852967</v>
+        <v>2.693114465265296</v>
       </c>
       <c r="C19">
-        <v>0.2179534532934042</v>
+        <v>0.7017837160939564</v>
       </c>
       <c r="D19">
-        <v>0.2889445783592635</v>
+        <v>0.2230106380647356</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.211735243316468</v>
+        <v>0.9102802730139672</v>
       </c>
       <c r="G19">
-        <v>0.002418813110608797</v>
+        <v>0.0007784637259915814</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4893698142026537</v>
+        <v>0.2314915418367107</v>
       </c>
       <c r="J19">
-        <v>0.2704126676155667</v>
+        <v>0.1736472797850084</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4641935551374914</v>
+        <v>0.9488506031841482</v>
       </c>
       <c r="N19">
-        <v>1.135940032347008</v>
+        <v>0.6383521865585209</v>
       </c>
       <c r="O19">
-        <v>2.581617152191001</v>
+        <v>1.927315253040859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9471204138403095</v>
+        <v>2.798777757460812</v>
       </c>
       <c r="C20">
-        <v>0.2261389737511195</v>
+        <v>0.7290054956963559</v>
       </c>
       <c r="D20">
-        <v>0.2902011503810229</v>
+        <v>0.2295171683572477</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.214243679400496</v>
+        <v>0.9340727092235994</v>
       </c>
       <c r="G20">
-        <v>0.002417865975126692</v>
+        <v>0.0007769477044194135</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4880259115818966</v>
+        <v>0.2332531298340541</v>
       </c>
       <c r="J20">
-        <v>0.270682664262992</v>
+        <v>0.1776299916957171</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4743587658974917</v>
+        <v>0.9860684507899649</v>
       </c>
       <c r="N20">
-        <v>1.132889959219135</v>
+        <v>0.6321767473022533</v>
       </c>
       <c r="O20">
-        <v>2.585607056229861</v>
+        <v>1.976404020695611</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.053221324577692</v>
+        <v>3.154938670326715</v>
       </c>
       <c r="C21">
-        <v>0.2536023510258474</v>
+        <v>0.8207870330960816</v>
       </c>
       <c r="D21">
-        <v>0.2945461540937089</v>
+        <v>0.2516762865698752</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.223532350563104</v>
+        <v>1.016700166904869</v>
       </c>
       <c r="G21">
-        <v>0.002414787584530323</v>
+        <v>0.0007719354768454264</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.483896270946147</v>
+        <v>0.2402991332983646</v>
       </c>
       <c r="J21">
-        <v>0.2717589073214555</v>
+        <v>0.1914984050527266</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5086526542005814</v>
+        <v>1.111917465455718</v>
       </c>
       <c r="N21">
-        <v>1.123175857417664</v>
+        <v>0.6128655988128884</v>
       </c>
       <c r="O21">
-        <v>2.601029324974292</v>
+        <v>2.147985122424728</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.122531361066422</v>
+        <v>3.388725745138686</v>
       </c>
       <c r="C22">
-        <v>0.2715209013419155</v>
+        <v>0.881058047743835</v>
       </c>
       <c r="D22">
-        <v>0.2974771834054764</v>
+        <v>0.2663992473809742</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.230244911299636</v>
+        <v>1.072874165039906</v>
       </c>
       <c r="G22">
-        <v>0.002412852765370173</v>
+        <v>0.0007687175777869459</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4814853746232544</v>
+        <v>0.2458059049002053</v>
       </c>
       <c r="J22">
-        <v>0.2725883980773602</v>
+        <v>0.2009549730982201</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5311683398481506</v>
+        <v>1.194844254957502</v>
       </c>
       <c r="N22">
-        <v>1.117224761537152</v>
+        <v>0.6013717579963114</v>
       </c>
       <c r="O22">
-        <v>2.612614098175328</v>
+        <v>2.265501025952489</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.085542726275605</v>
+        <v>3.263845538042347</v>
       </c>
       <c r="C23">
-        <v>0.261960300980121</v>
+        <v>0.8488608493553613</v>
       </c>
       <c r="D23">
-        <v>0.2959045095777952</v>
+        <v>0.25851806733084</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.226603533413865</v>
+        <v>1.042683048919073</v>
       </c>
       <c r="G23">
-        <v>0.002413878381698242</v>
+        <v>0.0007704299199877735</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4827457188750159</v>
+        <v>0.2427802214968544</v>
       </c>
       <c r="J23">
-        <v>0.2721341397666563</v>
+        <v>0.1958699036097045</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5191420196333496</v>
+        <v>1.150517405257304</v>
       </c>
       <c r="N23">
-        <v>1.120364599855996</v>
+        <v>0.6073994008816754</v>
       </c>
       <c r="O23">
-        <v>2.606293190787767</v>
+        <v>2.2022604008543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9453857837448822</v>
+        <v>2.792971312827774</v>
       </c>
       <c r="C24">
-        <v>0.2256896066666343</v>
+        <v>0.727509518218028</v>
       </c>
       <c r="D24">
-        <v>0.2901316812827304</v>
+        <v>0.2291587849552172</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.214102691250545</v>
+        <v>0.9327564431304296</v>
       </c>
       <c r="G24">
-        <v>0.0024179175958605</v>
+        <v>0.0007770306439975046</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4880982628596477</v>
+        <v>0.2331523021210629</v>
       </c>
       <c r="J24">
-        <v>0.2706672014080951</v>
+        <v>0.1774095208466875</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4738000091041528</v>
+        <v>0.9840218008014787</v>
       </c>
       <c r="N24">
-        <v>1.133055446322267</v>
+        <v>0.6325106020907114</v>
       </c>
       <c r="O24">
-        <v>2.585380368660992</v>
+        <v>1.973684318219597</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7941031378873618</v>
+        <v>2.28840327467185</v>
       </c>
       <c r="C25">
-        <v>0.1864443967094473</v>
+        <v>0.5975408499630817</v>
       </c>
       <c r="D25">
-        <v>0.2842995426528319</v>
+        <v>0.1984062636194608</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.203371571807992</v>
+        <v>0.8224437289468796</v>
       </c>
       <c r="G25">
-        <v>0.002422607580504005</v>
+        <v>0.0007844167394380727</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4951046909548396</v>
+        <v>0.2262496263179514</v>
       </c>
       <c r="J25">
-        <v>0.2696257626814997</v>
+        <v>0.1589954381199519</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4253436571821112</v>
+        <v>0.8068362583629494</v>
       </c>
       <c r="N25">
-        <v>1.148452886964876</v>
+        <v>0.6640839676174224</v>
       </c>
       <c r="O25">
-        <v>2.569270565641773</v>
+        <v>1.747554435492447</v>
       </c>
     </row>
   </sheetData>
